--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Charlotte_Hornets__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Charlotte_Hornets__.xlsx
@@ -588,64 +588,64 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>952</v>
+        <v>995</v>
       </c>
       <c r="G2" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H2" t="n">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.463</v>
+        <v>0.468</v>
       </c>
       <c r="J2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L2" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="M2" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N2" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="Q2" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R2" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S2" t="n">
-        <v>0.769</v>
+        <v>0.776</v>
       </c>
       <c r="T2" t="n">
         <v>33</v>
       </c>
       <c r="U2" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="V2" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="W2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
@@ -654,13 +654,13 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="n">
-        <v>525</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="G3" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H3" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.446</v>
+        <v>0.451</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
+        <v>124</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="M3" t="n">
         <v>119</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="M3" t="n">
-        <v>111</v>
-      </c>
       <c r="N3" t="n">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="O3" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="P3" t="n">
-        <v>0.51</v>
+        <v>0.515</v>
       </c>
       <c r="Q3" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
+        <v>112</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="T3" t="n">
+        <v>23</v>
+      </c>
+      <c r="U3" t="n">
+        <v>109</v>
+      </c>
+      <c r="V3" t="n">
+        <v>132</v>
+      </c>
+      <c r="W3" t="n">
         <v>102</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>105</v>
-      </c>
-      <c r="V3" t="n">
-        <v>127</v>
-      </c>
-      <c r="W3" t="n">
-        <v>95</v>
-      </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4">
@@ -852,79 +852,79 @@
         <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="G5" t="n">
+        <v>168</v>
+      </c>
+      <c r="H5" t="n">
+        <v>365</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79</v>
+      </c>
+      <c r="K5" t="n">
+        <v>205</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89</v>
+      </c>
+      <c r="N5" t="n">
         <v>160</v>
       </c>
-      <c r="H5" t="n">
-        <v>343</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="J5" t="n">
-        <v>76</v>
-      </c>
-      <c r="K5" t="n">
-        <v>193</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="M5" t="n">
-        <v>84</v>
-      </c>
-      <c r="N5" t="n">
-        <v>150</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="P5" t="n">
-        <v>0.577</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R5" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S5" t="n">
-        <v>0.642</v>
+        <v>0.649</v>
       </c>
       <c r="T5" t="n">
+        <v>33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>79</v>
+      </c>
+      <c r="V5" t="n">
+        <v>112</v>
+      </c>
+      <c r="W5" t="n">
         <v>31</v>
       </c>
-      <c r="U5" t="n">
-        <v>71</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>28</v>
-      </c>
-      <c r="X5" t="n">
-        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB5" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6">
@@ -933,86 +933,86 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>659</v>
+      </c>
+      <c r="G6" t="n">
+        <v>79</v>
+      </c>
+      <c r="H6" t="n">
+        <v>162</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="J6" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>626</v>
-      </c>
-      <c r="G6" t="n">
-        <v>124</v>
-      </c>
-      <c r="H6" t="n">
-        <v>289</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49</v>
-      </c>
       <c r="K6" t="n">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="L6" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="n">
+        <v>52</v>
+      </c>
+      <c r="N6" t="n">
+        <v>108</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="T6" t="n">
+        <v>33</v>
+      </c>
+      <c r="U6" t="n">
         <v>75</v>
       </c>
-      <c r="N6" t="n">
-        <v>149</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40</v>
-      </c>
-      <c r="R6" t="n">
-        <v>46</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
+        <v>108</v>
+      </c>
+      <c r="W6" t="n">
+        <v>60</v>
+      </c>
+      <c r="X6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="U6" t="n">
-        <v>55</v>
-      </c>
-      <c r="V6" t="n">
-        <v>67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>68</v>
-      </c>
-      <c r="X6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AB6" t="n">
-        <v>337</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -1021,86 +1021,86 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>626</v>
+      </c>
+      <c r="G7" t="n">
+        <v>124</v>
+      </c>
+      <c r="H7" t="n">
+        <v>289</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="J7" t="n">
+        <v>49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>140</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>75</v>
+      </c>
+      <c r="N7" t="n">
+        <v>149</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>40</v>
+      </c>
+      <c r="R7" t="n">
+        <v>46</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>55</v>
+      </c>
+      <c r="V7" t="n">
+        <v>67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>68</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
-        <v>24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>616</v>
-      </c>
-      <c r="G7" t="n">
-        <v>74</v>
-      </c>
-      <c r="H7" t="n">
-        <v>154</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="J7" t="n">
-        <v>25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>51</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M7" t="n">
-        <v>49</v>
-      </c>
-      <c r="N7" t="n">
-        <v>103</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>29</v>
-      </c>
-      <c r="R7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="T7" t="n">
-        <v>31</v>
-      </c>
-      <c r="U7" t="n">
-        <v>72</v>
-      </c>
-      <c r="V7" t="n">
-        <v>103</v>
-      </c>
-      <c r="W7" t="n">
-        <v>57</v>
-      </c>
-      <c r="X7" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>202</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8">
@@ -1202,43 +1202,43 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I9" t="n">
-        <v>0.466</v>
+        <v>0.455</v>
       </c>
       <c r="J9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L9" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="M9" t="n">
         <v>26</v>
       </c>
       <c r="N9" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O9" t="n">
-        <v>0.491</v>
+        <v>0.464</v>
       </c>
       <c r="P9" t="n">
-        <v>0.586</v>
+        <v>0.577</v>
       </c>
       <c r="Q9" t="n">
         <v>16</v>
@@ -1253,28 +1253,28 @@
         <v>18</v>
       </c>
       <c r="U9" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V9" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
@@ -1466,22 +1466,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
-        <v>0.705</v>
+        <v>0.694</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,37 +1491,37 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O12" t="n">
-        <v>0.705</v>
+        <v>0.694</v>
       </c>
       <c r="P12" t="n">
-        <v>0.705</v>
+        <v>0.694</v>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="T12" t="n">
         <v>21</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V12" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>4</v>
@@ -1530,13 +1530,13 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1552,43 +1552,43 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>15</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3</v>
+        <v>0.289</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -1600,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1640,67 +1640,67 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>35</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>5</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>0.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1888,77 +1888,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6340</v>
+        <v>6580</v>
       </c>
       <c r="G17" t="n">
-        <v>1116</v>
+        <v>1155</v>
       </c>
       <c r="H17" t="n">
-        <v>2431</v>
+        <v>2511</v>
       </c>
       <c r="I17" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="J17" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K17" t="n">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="L17" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="M17" t="n">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="N17" t="n">
-        <v>1455</v>
+        <v>1506</v>
       </c>
       <c r="O17" t="n">
-        <v>0.509</v>
+        <v>0.511</v>
       </c>
       <c r="P17" t="n">
-        <v>0.536</v>
+        <v>0.537</v>
       </c>
       <c r="Q17" t="n">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="R17" t="n">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="S17" t="n">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
       <c r="T17" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="U17" t="n">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="V17" t="n">
-        <v>1146</v>
+        <v>1181</v>
       </c>
       <c r="W17" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="X17" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Y17" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Z17" t="n">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="AB17" t="n">
-        <v>3011</v>
+        <v>3117</v>
       </c>
     </row>
   </sheetData>
